--- a/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80CF639-EBA1-4A55-9E8F-47DA867DD3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50036717-A3BB-46E8-A891-43189D6B8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AC2F527-39CA-41FF-AD0E-F84C65F1AA11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58B288A8-6150-4529-8748-07A91A5A0F44}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>17,46%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,54%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,18%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>26,65%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,31 +254,31 @@
     <t>16,03%</t>
   </si>
   <si>
-    <t>31,62%</t>
+    <t>31,41%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>68,38%</t>
+    <t>68,59%</t>
   </si>
   <si>
     <t>83,97%</t>
@@ -287,19 +287,19 @@
     <t>62,21%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>29,76%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,109 @@
     <t>27,46%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>47,64%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>72,54%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>52,36%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>76,43%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EA6AA-43B0-4F32-BA55-922AEE20216A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901DBF8-3E34-480D-B9C6-C79DCE310D76}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,7 +1198,7 @@
         <v>354</v>
       </c>
       <c r="N5" s="7">
-        <v>231264</v>
+        <v>231265</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1249,7 +1249,7 @@
         <v>457</v>
       </c>
       <c r="N6" s="7">
-        <v>296086</v>
+        <v>296087</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50036717-A3BB-46E8-A891-43189D6B8870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED9786B-CE78-49D7-9730-033660DDBB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58B288A8-6150-4529-8748-07A91A5A0F44}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F2DDC18-DC1D-4E85-A639-4313B8EE6B54}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901DBF8-3E34-480D-B9C6-C79DCE310D76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B061EC8-6D79-41A2-8CCC-D366B9150B2E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED9786B-CE78-49D7-9730-033660DDBB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80267A5F-4ADB-4796-BDEC-0C2BAE20A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F2DDC18-DC1D-4E85-A639-4313B8EE6B54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBC7AC9F-C9BF-4A73-949A-3B75DFD491B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
-    <t>Población que se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
+    <t>Población según si se traslada al trabajo o actividad habitual de forma activa en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>17,46%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,54%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,18%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>26,65%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,31 +254,31 @@
     <t>16,03%</t>
   </si>
   <si>
-    <t>31,41%</t>
+    <t>31,62%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>76,91%</t>
   </si>
   <si>
-    <t>68,59%</t>
+    <t>68,38%</t>
   </si>
   <si>
     <t>83,97%</t>
@@ -287,19 +287,19 @@
     <t>62,21%</t>
   </si>
   <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>29,76%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,166 +422,166 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>71,87%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B061EC8-6D79-41A2-8CCC-D366B9150B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C82E13-03D2-48C3-9CDF-8FC5A5D2BE3C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1198,7 +1198,7 @@
         <v>354</v>
       </c>
       <c r="N5" s="7">
-        <v>231265</v>
+        <v>231264</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1249,7 +1249,7 @@
         <v>457</v>
       </c>
       <c r="N6" s="7">
-        <v>296087</v>
+        <v>296086</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/p64d1_r-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80267A5F-4ADB-4796-BDEC-0C2BAE20A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A962120B-89B4-46AC-889D-F01C07EDD097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBC7AC9F-C9BF-4A73-949A-3B75DFD491B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF5F154F-DF6D-4BF2-BC81-68521EFC8201}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,517 +71,517 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C82E13-03D2-48C3-9CDF-8FC5A5D2BE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009F8E9-526F-4661-A10C-1679176F7A6C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,7 +1117,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>28147</v>
+        <v>33260</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>36675</v>
+        <v>39295</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,7 +1147,7 @@
         <v>103</v>
       </c>
       <c r="N4" s="7">
-        <v>64822</v>
+        <v>72555</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1168,7 +1168,7 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>133050</v>
+        <v>158908</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1183,7 +1183,7 @@
         <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>98215</v>
+        <v>105037</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +1198,7 @@
         <v>354</v>
       </c>
       <c r="N5" s="7">
-        <v>231264</v>
+        <v>263946</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,7 +1219,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="7">
-        <v>161197</v>
+        <v>192168</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1234,7 @@
         <v>257</v>
       </c>
       <c r="I6" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1249,7 +1249,7 @@
         <v>457</v>
       </c>
       <c r="N6" s="7">
-        <v>296086</v>
+        <v>336501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>49654</v>
+        <v>50145</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>52815</v>
+        <v>49745</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1302,7 +1302,7 @@
         <v>111</v>
       </c>
       <c r="N7" s="7">
-        <v>102470</v>
+        <v>99890</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1323,7 +1323,7 @@
         <v>133</v>
       </c>
       <c r="D8" s="7">
-        <v>196439</v>
+        <v>195430</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1338,7 +1338,7 @@
         <v>138</v>
       </c>
       <c r="I8" s="7">
-        <v>124487</v>
+        <v>115888</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1353,7 +1353,7 @@
         <v>271</v>
       </c>
       <c r="N8" s="7">
-        <v>320926</v>
+        <v>311318</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1374,7 +1374,7 @@
         <v>171</v>
       </c>
       <c r="D9" s="7">
-        <v>246093</v>
+        <v>245575</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1389,7 @@
         <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>177302</v>
+        <v>165633</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1404,7 @@
         <v>382</v>
       </c>
       <c r="N9" s="7">
-        <v>423396</v>
+        <v>411208</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1427,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>40288</v>
+        <v>39309</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1442,7 +1442,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>54838</v>
+        <v>51720</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1457,7 +1457,7 @@
         <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>95126</v>
+        <v>91029</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1478,7 +1478,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>110875</v>
+        <v>109373</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1493,7 +1493,7 @@
         <v>94</v>
       </c>
       <c r="I11" s="7">
-        <v>73555</v>
+        <v>69142</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1508,7 +1508,7 @@
         <v>204</v>
       </c>
       <c r="N11" s="7">
-        <v>184430</v>
+        <v>178514</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1529,7 +1529,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="7">
-        <v>151163</v>
+        <v>148682</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1544,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="7">
-        <v>128393</v>
+        <v>120862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
         <v>321</v>
       </c>
       <c r="N12" s="7">
-        <v>279556</v>
+        <v>269543</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>40003</v>
+        <v>38430</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>73892</v>
+        <v>124223</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1612,7 +1612,7 @@
         <v>113</v>
       </c>
       <c r="N13" s="7">
-        <v>113894</v>
+        <v>162653</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1633,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>133278</v>
+        <v>128955</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1648,7 +1648,7 @@
         <v>127</v>
       </c>
       <c r="I14" s="7">
-        <v>121629</v>
+        <v>134563</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1663,7 +1663,7 @@
         <v>215</v>
       </c>
       <c r="N14" s="7">
-        <v>254908</v>
+        <v>263518</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1684,7 +1684,7 @@
         <v>125</v>
       </c>
       <c r="D15" s="7">
-        <v>173281</v>
+        <v>167385</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1699,7 @@
         <v>203</v>
       </c>
       <c r="I15" s="7">
-        <v>195521</v>
+        <v>258786</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1714,7 +1714,7 @@
         <v>328</v>
       </c>
       <c r="N15" s="7">
-        <v>368802</v>
+        <v>426171</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>55745</v>
+        <v>50903</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1752,7 @@
         <v>143</v>
       </c>
       <c r="I16" s="7">
-        <v>68149</v>
+        <v>62036</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1767,7 +1767,7 @@
         <v>218</v>
       </c>
       <c r="N16" s="7">
-        <v>123893</v>
+        <v>112939</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1788,7 +1788,7 @@
         <v>96</v>
       </c>
       <c r="D17" s="7">
-        <v>69282</v>
+        <v>63336</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1803,7 +1803,7 @@
         <v>97</v>
       </c>
       <c r="I17" s="7">
-        <v>50132</v>
+        <v>45081</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1818,7 +1818,7 @@
         <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>119415</v>
+        <v>108417</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1839,7 +1839,7 @@
         <v>171</v>
       </c>
       <c r="D18" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1854,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1869,7 +1869,7 @@
         <v>411</v>
       </c>
       <c r="N18" s="7">
-        <v>243308</v>
+        <v>221356</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1892,7 +1892,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>41272</v>
+        <v>40305</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1907,7 +1907,7 @@
         <v>75</v>
       </c>
       <c r="I19" s="7">
-        <v>50008</v>
+        <v>46510</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1922,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="N19" s="7">
-        <v>91280</v>
+        <v>86815</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1943,7 +1943,7 @@
         <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>97397</v>
+        <v>94756</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1958,7 +1958,7 @@
         <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>42937</v>
+        <v>39892</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1973,7 +1973,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="7">
-        <v>140334</v>
+        <v>134648</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1994,7 +1994,7 @@
         <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2009,7 @@
         <v>129</v>
       </c>
       <c r="I21" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2024,7 @@
         <v>284</v>
       </c>
       <c r="N21" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>38863</v>
+        <v>37695</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2062,7 +2062,7 @@
         <v>115</v>
       </c>
       <c r="I22" s="7">
-        <v>79111</v>
+        <v>74220</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2077,7 +2077,7 @@
         <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>117974</v>
+        <v>111915</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2098,7 +2098,7 @@
         <v>277</v>
       </c>
       <c r="D23" s="7">
-        <v>296911</v>
+        <v>296556</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2113,7 +2113,7 @@
         <v>334</v>
       </c>
       <c r="I23" s="7">
-        <v>247861</v>
+        <v>232494</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2128,7 +2128,7 @@
         <v>611</v>
       </c>
       <c r="N23" s="7">
-        <v>544772</v>
+        <v>529050</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2149,7 +2149,7 @@
         <v>314</v>
       </c>
       <c r="D24" s="7">
-        <v>335774</v>
+        <v>334251</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2164,7 @@
         <v>449</v>
       </c>
       <c r="I24" s="7">
-        <v>326972</v>
+        <v>306714</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2179,7 @@
         <v>763</v>
       </c>
       <c r="N24" s="7">
-        <v>662746</v>
+        <v>640965</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2202,7 +2202,7 @@
         <v>117</v>
       </c>
       <c r="D25" s="7">
-        <v>138993</v>
+        <v>117938</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2217,7 +2217,7 @@
         <v>173</v>
       </c>
       <c r="I25" s="7">
-        <v>155761</v>
+        <v>128507</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2232,7 +2232,7 @@
         <v>290</v>
       </c>
       <c r="N25" s="7">
-        <v>294754</v>
+        <v>246445</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2253,7 +2253,7 @@
         <v>268</v>
       </c>
       <c r="D26" s="7">
-        <v>367098</v>
+        <v>510387</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2268,7 +2268,7 @@
         <v>202</v>
       </c>
       <c r="I26" s="7">
-        <v>171188</v>
+        <v>142582</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2283,7 +2283,7 @@
         <v>470</v>
       </c>
       <c r="N26" s="7">
-        <v>538286</v>
+        <v>652969</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2304,7 +2304,7 @@
         <v>385</v>
       </c>
       <c r="D27" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2319,7 @@
         <v>375</v>
       </c>
       <c r="I27" s="7">
-        <v>326949</v>
+        <v>271089</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2334,7 @@
         <v>760</v>
       </c>
       <c r="N27" s="7">
-        <v>833040</v>
+        <v>899414</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2357,7 +2357,7 @@
         <v>429</v>
       </c>
       <c r="D28" s="7">
-        <v>432964</v>
+        <v>407985</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2372,7 +2372,7 @@
         <v>798</v>
       </c>
       <c r="I28" s="7">
-        <v>571250</v>
+        <v>576256</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -2387,7 +2387,7 @@
         <v>1227</v>
       </c>
       <c r="N28" s="7">
-        <v>1004214</v>
+        <v>984242</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -2408,7 +2408,7 @@
         <v>1244</v>
       </c>
       <c r="D29" s="7">
-        <v>1404331</v>
+        <v>1557701</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -2423,7 +2423,7 @@
         <v>1235</v>
       </c>
       <c r="I29" s="7">
-        <v>930003</v>
+        <v>884679</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -2438,7 +2438,7 @@
         <v>2479</v>
       </c>
       <c r="N29" s="7">
-        <v>2334334</v>
+        <v>2442380</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -2459,7 +2459,7 @@
         <v>1673</v>
       </c>
       <c r="D30" s="7">
-        <v>1837295</v>
+        <v>1965686</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2474,7 @@
         <v>2033</v>
       </c>
       <c r="I30" s="7">
-        <v>1501253</v>
+        <v>1460935</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>3706</v>
       </c>
       <c r="N30" s="7">
-        <v>3338548</v>
+        <v>3426622</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
